--- a/src/test/resources/TestData/HomeLoan_TestData.xlsx
+++ b/src/test/resources/TestData/HomeLoan_TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="86">
   <si>
     <t>Home Value (HV) [₹]</t>
   </si>

--- a/src/test/resources/TestData/HomeLoan_TestData.xlsx
+++ b/src/test/resources/TestData/HomeLoan_TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2457327\Downloads\EMICalculator\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2457327\IdeaProjects\Automating_EMICaluculator\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D900A18-DBD5-4DA5-BFB5-F0CB62E47005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE320397-805D-4FC5-96A3-270A1EE0D694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>Home Value (HV) [₹]</t>
   </si>
@@ -65,171 +65,222 @@
     <t>Year</t>
   </si>
   <si>
+    <t>Principle</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Taxes,HomeINsurance</t>
+  </si>
+  <si>
+    <t>Total Payment</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Loan Paid to Date</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>₹ 36,52,798</t>
+  </si>
+  <si>
+    <t>₹ 1,95,067</t>
+  </si>
+  <si>
+    <t>₹ 41,250</t>
+  </si>
+  <si>
+    <t>₹ 38,89,115</t>
+  </si>
+  <si>
+    <t>₹ 3,47,202</t>
+  </si>
+  <si>
+    <t>91.32%</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>₹ 2,604</t>
+  </si>
+  <si>
+    <t>₹ 3,750</t>
+  </si>
+  <si>
+    <t>₹ 3,53,556</t>
+  </si>
+  <si>
+    <t>₹ 0</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,19,806</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,750</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,53,556</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36,80,194</t>
+  </si>
+  <si>
     <t>8%</t>
   </si>
   <si>
-    <t>Feb</t>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,22,204</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27,601</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33,57,990</t>
   </si>
   <si>
     <t>16.05%</t>
   </si>
   <si>
-    <t>Mar</t>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,24,621</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25,185</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30,33,369</t>
   </si>
   <si>
     <t>24.17%</t>
   </si>
   <si>
-    <t>Apr</t>
+    <t>May</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,27,056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22,750</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27,06,313</t>
   </si>
   <si>
     <t>32.34%</t>
   </si>
   <si>
-    <t>May</t>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,29,509</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20,297</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23,76,804</t>
   </si>
   <si>
     <t>40.58%</t>
   </si>
   <si>
-    <t>Jun</t>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,31,980</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17,826</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20,44,825</t>
   </si>
   <si>
     <t>48.88%</t>
   </si>
   <si>
-    <t>Jul</t>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,34,470</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15,336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17,10,355</t>
   </si>
   <si>
     <t>57.24%</t>
   </si>
   <si>
-    <t>Aug</t>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,36,978</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12,828</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13,73,377</t>
   </si>
   <si>
     <t>65.67%</t>
   </si>
   <si>
-    <t>Sep</t>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,39,506</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10,300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10,33,871</t>
   </si>
   <si>
     <t>74.15%</t>
   </si>
   <si>
-    <t>Oct</t>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,42,052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7,754</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,91,819</t>
   </si>
   <si>
     <t>82.7%</t>
   </si>
   <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>91.32%</t>
-  </si>
-  <si>
     <t>Dec</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,19,806</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,750</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,53,556</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36,80,194</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,22,204</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27,601</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33,57,990</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,24,621</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25,185</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30,33,369</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,27,056</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22,750</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27,06,313</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,29,509</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20,297</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23,76,804</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,31,980</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17,826</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20,44,825</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,34,470</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15,336</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17,10,355</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,36,978</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12,828</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13,73,377</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,39,506</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10,33,871</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,42,052</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7,754</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,91,819</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3,44,617</t>
   </si>
   <si>
@@ -243,42 +294,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 0</t>
-  </si>
-  <si>
-    <t>Principle</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Taxes,HomeINsurance</t>
-  </si>
-  <si>
-    <t>Total Payment</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Loan Paid to Date</t>
-  </si>
-  <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>₹ 40,00,000</t>
-  </si>
-  <si>
-    <t>₹ 1,97,671</t>
-  </si>
-  <si>
-    <t>₹ 45,000</t>
-  </si>
-  <si>
-    <t>₹ 42,42,671</t>
-  </si>
-  <si>
-    <t>₹ 0</t>
   </si>
 </sst>
 </file>
@@ -785,10 +800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD78F1B1-9055-43A3-967E-8EE35015D98B}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -807,321 +822,342 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B11" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C11" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G11" t="s" s="0">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B12" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C12" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="G12" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="F2" t="s" s="0">
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="B13" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="E13" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s" s="0">
+      <c r="F13" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="0">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/HomeLoan_TestData.xlsx
+++ b/src/test/resources/TestData/HomeLoan_TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="91">
   <si>
     <t>Home Value (HV) [₹]</t>
   </si>
